--- a/research/content-inventory.xlsx
+++ b/research/content-inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leocast/Desktop/2023-repos/Portfolio/research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEAF9BE-8D61-0543-BEB6-095E8A258922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F68DC-235C-BB4B-B4F7-DCCC2A59CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="-19440" windowWidth="17740" windowHeight="9380" xr2:uid="{722A7E64-0873-E84E-9FB6-DD3943D0F90F}"/>
+    <workbookView xWindow="3160" yWindow="2260" windowWidth="21340" windowHeight="12880" xr2:uid="{722A7E64-0873-E84E-9FB6-DD3943D0F90F}"/>
   </bookViews>
   <sheets>
     <sheet name="content inventory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Navigation Title</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Page/Section #</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>HTML Resume</t>
+  </si>
+  <si>
+    <t>CMS Project</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -247,18 +256,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -287,6 +294,11 @@
     <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,60 +624,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A194C1E-24E1-4149-93B0-C76C96D7FE33}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
     <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -673,7 +684,7 @@
       <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -683,10 +694,10 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>44972</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
@@ -697,7 +708,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
@@ -707,7 +718,7 @@
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="22">
         <v>44972</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -720,19 +731,19 @@
       <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>44972</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -745,19 +756,19 @@
       <c r="A5" s="8">
         <v>1.2</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>44972</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -770,19 +781,19 @@
       <c r="A6" s="8">
         <v>1.3</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>44972</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -795,19 +806,19 @@
       <c r="A7" s="8">
         <v>1.4</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>44972</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -820,7 +831,7 @@
       <c r="A8" s="9">
         <v>1.5</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
@@ -830,7 +841,7 @@
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <v>44972</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -843,7 +854,7 @@
       <c r="A9" s="10">
         <v>1.6</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
@@ -853,7 +864,7 @@
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <v>44972</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -866,17 +877,17 @@
       <c r="A10" s="11">
         <v>1.7</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>44972</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -889,17 +900,17 @@
       <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -912,17 +923,17 @@
       <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -935,17 +946,17 @@
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -958,17 +969,17 @@
       <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -978,16 +989,42 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="25">
+        <v>44973</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="1"/>
+      <c r="E17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/research/content-inventory.xlsx
+++ b/research/content-inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leocast/Desktop/2023-repos/Portfolio/research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F68DC-235C-BB4B-B4F7-DCCC2A59CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14620F7-6BA8-E248-BD0F-B13844AA64E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2260" windowWidth="21340" windowHeight="12880" xr2:uid="{722A7E64-0873-E84E-9FB6-DD3943D0F90F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Navigation Title</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>CMS Project</t>
+  </si>
+  <si>
+    <t>Tags: Project Management, UX Design</t>
+  </si>
+  <si>
+    <t>Tags: UX/UI Design</t>
+  </si>
+  <si>
+    <t>Tags: Project Management, UX/UI Design</t>
+  </si>
+  <si>
+    <t>Tags: Project Management, UX Design, Web Development</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -230,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -297,8 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A194C1E-24E1-4149-93B0-C76C96D7FE33}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +723,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -749,7 +762,9 @@
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -774,7 +789,9 @@
       <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,7 +816,9 @@
       <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -824,7 +843,9 @@
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -992,39 +1013,32 @@
       <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="30"/>
       <c r="E15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="30"/>
       <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="30"/>
       <c r="I15" s="25">
         <v>44973</v>
       </c>
-      <c r="J15" s="30"/>
       <c r="K15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="30"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="30"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="E17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
